--- a/Modelo Fisico OpFlix.xlsx
+++ b/Modelo Fisico OpFlix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47451835855\Documents\OpFlix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF366B60-D30A-4185-8D4C-CA774337D46A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBC5E41-B616-4F79-AAEA-4E033AE5DD9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{D437B6D6-A404-44A9-9D70-1676F329C8DA}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
-  <si>
-    <t>Usuarios</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>IdUsuarios</t>
   </si>
@@ -108,9 +105,6 @@
     <t>Letras:  Em Busca da Palavra</t>
   </si>
   <si>
-    <t>Gênero</t>
-  </si>
-  <si>
     <t>TempoDuracao</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Fantasia</t>
   </si>
   <si>
-    <t>IdFilmesLancamentos</t>
-  </si>
-  <si>
     <t>IdGenero</t>
   </si>
   <si>
@@ -174,14 +165,50 @@
     <t>xisipsilonze</t>
   </si>
   <si>
-    <t xml:space="preserve">Lançamentos </t>
+    <t>Cleiton</t>
+  </si>
+  <si>
+    <t>Astrogildo</t>
+  </si>
+  <si>
+    <t>cleitaododjabo@gmail.com</t>
+  </si>
+  <si>
+    <t>astroestrela@gmail.com</t>
+  </si>
+  <si>
+    <t>astros369</t>
+  </si>
+  <si>
+    <t>elmachips333</t>
+  </si>
+  <si>
+    <t>IdUsuario</t>
+  </si>
+  <si>
+    <t>LancamentoFavorito</t>
+  </si>
+  <si>
+    <t>IdLancamento</t>
+  </si>
+  <si>
+    <t>Lancamento</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +236,13 @@
       <u/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -278,14 +312,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,20 +325,263 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -330,16 +603,7 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <b/>
       </font>
     </dxf>
     <dxf>
@@ -360,6 +624,24 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -374,8 +656,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57C12A8A-A1CE-4359-9C7F-911FC4DBCC3C}" name="Tabela1" displayName="Tabela1" ref="B4:F7" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B4:F7" xr:uid="{3ADE6FE6-590D-4C1B-9C1E-C463BF030F10}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57C12A8A-A1CE-4359-9C7F-911FC4DBCC3C}" name="Tabela1" displayName="Tabela1" ref="B4:F9" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="12">
+  <autoFilter ref="B4:F9" xr:uid="{3ADE6FE6-590D-4C1B-9C1E-C463BF030F10}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -385,7 +667,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1593504D-58B1-4F22-8853-9E4C7B148569}" name="IdUsuarios"/>
     <tableColumn id="2" xr3:uid="{B58FB413-42DA-4E78-BC70-B5A698D3C471}" name="Nome"/>
-    <tableColumn id="3" xr3:uid="{93DB59EA-A61B-47E1-BB43-D9F31C801A6A}" name="Email" dataDxfId="3" dataCellStyle="Hiperlink"/>
+    <tableColumn id="3" xr3:uid="{93DB59EA-A61B-47E1-BB43-D9F31C801A6A}" name="Email" dataDxfId="11" dataCellStyle="Hiperlink"/>
     <tableColumn id="4" xr3:uid="{F0679472-A0A8-47C5-BAB2-43DF4F0A921A}" name="Senha"/>
     <tableColumn id="5" xr3:uid="{921E0F87-4CA7-4273-8176-65CEEBB542C8}" name="IdTipoUsuario"/>
   </tableColumns>
@@ -394,7 +676,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F602DAEC-F69A-488F-A239-08F7E71895ED}" name="Tabela3" displayName="Tabela3" ref="K13:L16" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F602DAEC-F69A-488F-A239-08F7E71895ED}" name="Tabela3" displayName="Tabela3" ref="K13:L16" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="8">
   <autoFilter ref="K13:L16" xr:uid="{28ABC229-46F0-4402-ADFC-10F82E2A22FF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -408,7 +690,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C02A3374-10E4-46A2-A89A-69A2EC974B8B}" name="Tabela4" displayName="Tabela4" ref="K4:L8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C02A3374-10E4-46A2-A89A-69A2EC974B8B}" name="Tabela4" displayName="Tabela4" ref="K4:L8" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="9">
   <autoFilter ref="K4:L8" xr:uid="{6F7CC0D9-4E02-4266-AFA4-7FAD51C520C4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -422,7 +704,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AE7A8F86-6D3F-45B4-83EB-FEBA0AB0FE88}" name="Tabela7" displayName="Tabela7" ref="C12:I17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AE7A8F86-6D3F-45B4-83EB-FEBA0AB0FE88}" name="Tabela7" displayName="Tabela7" ref="C12:I17" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="13">
   <autoFilter ref="C12:I17" xr:uid="{6FDF4CCE-F9C8-4F74-AFCA-99B0C8F81EAF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -433,20 +715,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C4B1FE7D-9A0C-4410-8F80-5A336494C7F6}" name="IdFilmesLancamentos"/>
-    <tableColumn id="2" xr3:uid="{7A03DD78-EA22-4114-9248-7E54368AE24B}" name="Nome"/>
-    <tableColumn id="3" xr3:uid="{59D70F74-B1F0-40E1-A56C-194F1276210A}" name="TempoDuracao"/>
-    <tableColumn id="4" xr3:uid="{E3CBC3EB-BF87-4D33-B349-65F033F8C679}" name="DataLancamento" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{99B26EB5-4A16-41EA-A0CA-6B7774240114}" name="Sinopse"/>
-    <tableColumn id="6" xr3:uid="{4A246AE7-8F4A-4E63-B4C9-A6694458A67F}" name="IdGenero"/>
-    <tableColumn id="7" xr3:uid="{95DDC3B0-1F71-45FD-911A-66D9984DB8AB}" name="IdTipoMetragem"/>
+    <tableColumn id="1" xr3:uid="{C4B1FE7D-9A0C-4410-8F80-5A336494C7F6}" name="IdLancamento" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7A03DD78-EA22-4114-9248-7E54368AE24B}" name="Nome" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{59D70F74-B1F0-40E1-A56C-194F1276210A}" name="TempoDuracao" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E3CBC3EB-BF87-4D33-B349-65F033F8C679}" name="DataLancamento" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{99B26EB5-4A16-41EA-A0CA-6B7774240114}" name="Sinopse" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4A246AE7-8F4A-4E63-B4C9-A6694458A67F}" name="IdGenero" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{95DDC3B0-1F71-45FD-911A-66D9984DB8AB}" name="IdTipoMetragem" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AFC017AF-E32E-464E-BDB0-22581A9D92B6}" name="Tabela8" displayName="Tabela8" ref="H4:I6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AFC017AF-E32E-464E-BDB0-22581A9D92B6}" name="Tabela8" displayName="Tabela8" ref="H4:I6" totalsRowShown="0" tableBorderDxfId="10">
   <autoFilter ref="H4:I6" xr:uid="{CADA6B6E-F068-4A20-BA4B-E97172F9EFB2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -456,6 +738,20 @@
     <tableColumn id="2" xr3:uid="{4B15F4EA-79E3-4D1D-BFD2-7D181F971EF0}" name="Nome"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7BFD9162-7A05-4B27-9CDB-20E5C348893C}" name="Tabela5" displayName="Tabela5" ref="F21:G26" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="F21:G26" xr:uid="{022D4649-E240-4F1A-96CA-D01501AEFD65}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{35F35155-1339-4BA4-857A-760B6DED0350}" name="IdLancamento"/>
+    <tableColumn id="2" xr3:uid="{16C0A4E3-CC91-40DC-B00B-106C23DDF076}" name="IdUsuario" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -756,19 +1052,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1654B7-D2CA-4F30-B249-BAD18CCF48DF}">
-  <dimension ref="B2:L25"/>
+  <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -779,328 +1075,415 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="K3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="H3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="K3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>4</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="6">
         <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="15">
+        <v>46478</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="14">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="K13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="15">
+        <v>44927</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="14">
+        <v>3</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F15" s="15">
+        <v>44470</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="14">
+        <v>4</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="14">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="15">
+        <v>44805</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C13">
+      <c r="H16" s="14">
+        <v>2</v>
+      </c>
+      <c r="I16" s="14">
+        <v>2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>3</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="14">
+        <v>5</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="15">
+        <v>45717</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="14">
+        <v>4</v>
+      </c>
+      <c r="I17" s="14">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="6">
-        <v>46478</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13">
+    </row>
+    <row r="19" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="7"/>
+      <c r="F20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="6">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="6">
         <v>3</v>
       </c>
-      <c r="I13">
+      <c r="G23" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="6">
         <v>2</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="6">
-        <v>44927</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14">
+      <c r="G25" s="9">
         <v>3</v>
       </c>
-      <c r="I14">
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="6">
+        <v>4</v>
+      </c>
+      <c r="G26" s="9">
         <v>1</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6">
-        <v>44470</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="6">
-        <v>44805</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="6">
-        <v>45717</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="C11:I11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K3:L3"/>
@@ -1111,15 +1494,18 @@
     <hyperlink ref="D5" r:id="rId1" xr:uid="{2407A09A-213F-4CF6-9D66-FE018E255E6E}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{9C8122E8-8503-4CA5-82CD-2CBDCE146751}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{E1244822-99DE-4848-AE09-D3600F0CCFEC}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{C54E4AE6-80F5-4144-BE7A-B6101C759D89}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{FDDDBF3D-067A-45CB-AF24-BB919CC1EC2A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-  <tableParts count="5">
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <tableParts count="6">
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>